--- a/centralidade0.xlsx
+++ b/centralidade0.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,11 +452,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>65759</t>
+          <t>657683</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.962737980786436e-12</v>
+        <v>3.683708433485746e-14</v>
       </c>
     </row>
     <row r="3">
@@ -465,11 +465,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>65763</t>
+          <t>657695</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.984323850562999e-11</v>
+        <v>1.170747355837535e-13</v>
       </c>
     </row>
     <row r="4">
@@ -478,11 +478,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>65766</t>
+          <t>657597</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.978120185294992e-13</v>
+        <v>3.962737980786436e-12</v>
       </c>
     </row>
     <row r="5">
@@ -491,11 +491,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>65771</t>
+          <t>657664</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.56932577230187e-13</v>
+        <v>7.143607754296854e-13</v>
       </c>
     </row>
     <row r="6">
@@ -504,11 +504,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>65758</t>
+          <t>657593</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.802636228130444e-13</v>
+        <v>9.018909388940123e-14</v>
       </c>
     </row>
     <row r="7">
@@ -517,11 +517,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>65760</t>
+          <t>657588</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.400362075832629e-13</v>
+        <v>4.503381705478095e-13</v>
       </c>
     </row>
     <row r="8">
@@ -530,11 +530,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>65768</t>
+          <t>657688</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.683708433485746e-14</v>
+        <v>6.0389668050092e-12</v>
       </c>
     </row>
     <row r="9">
@@ -543,14 +543,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>65767</t>
+          <t>657627</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.754769847322685e-13</v>
+        <v>2.754767051329463e-11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>657607</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5.275885572201299e-14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>